--- a/notebook/Option settlement/portfolio.xlsx
+++ b/notebook/Option settlement/portfolio.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15620" tabRatio="500"/>
+    <workbookView xWindow="31860" yWindow="6260" windowWidth="25600" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>EXERCISE PRICE</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Call</t>
+  </si>
+  <si>
+    <t>Put</t>
   </si>
 </sst>
 </file>
@@ -88,17 +91,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -428,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="A3:E3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -464,13 +471,13 @@
         <v>23600</v>
       </c>
       <c r="C2">
-        <v>-108</v>
+        <v>-111</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -481,13 +488,13 @@
         <v>23400</v>
       </c>
       <c r="C4">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -505,6 +512,40 @@
       </c>
       <c r="E5">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>22600</v>
+      </c>
+      <c r="C7">
+        <v>-142</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>23000</v>
+      </c>
+      <c r="C8">
+        <v>282</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
